--- a/data/cci/cci-org.xlsx
+++ b/data/cci/cci-org.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony.wilson/git/cci-vocabularies2/data/cci/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfc365-my.sharepoint.com/personal/alison_waterfall_stfc_ac_uk/Documents/Documents/GitHub/cci-vocabularies/data/cci/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62A10CED-EE1C-6944-94A2-AC4C7CB24793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{62A10CED-EE1C-6944-94A2-AC4C7CB24793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E9E55C7-FC5F-4E00-9E35-D3AA7DA9187C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{04F743D1-7C0F-1C43-BF25-7C0E63F3FDA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{04F743D1-7C0F-1C43-BF25-7C0E63F3FDA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="327">
   <si>
     <t>URI</t>
   </si>
@@ -1014,6 +1014,12 @@
   </si>
   <si>
     <t>University of Trento</t>
+  </si>
+  <si>
+    <t>org109</t>
+  </si>
+  <si>
+    <t>University of Porto</t>
   </si>
 </sst>
 </file>
@@ -1421,19 +1427,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F04911A-215F-424B-BD95-9DCC009C6955}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="86.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="86.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
     <col min="6" max="6" width="65" customWidth="1"/>
-    <col min="7" max="7" width="154.85546875" customWidth="1"/>
+    <col min="7" max="7" width="154.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2898,6 +2906,17 @@
       </c>
       <c r="B108" t="s">
         <v>324</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>325</v>
+      </c>
+      <c r="B109" t="s">
+        <v>326</v>
+      </c>
+      <c r="E109">
+        <v>121739996</v>
       </c>
     </row>
   </sheetData>
